--- a/document/test.xlsx
+++ b/document/test.xlsx
@@ -38,6 +38,36 @@
     <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.037cm"/>
     </style:style>
+    <style:style style:name="co12" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.557cm"/>
+    </style:style>
+    <style:style style:name="co13" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="5.941cm"/>
+    </style:style>
+    <style:style style:name="co22" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="7.251cm"/>
+    </style:style>
+    <style:style style:name="co23" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="10.282cm"/>
+    </style:style>
+    <style:style style:name="co24" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="8.438cm"/>
+    </style:style>
+    <style:style style:name="co25" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="7.177cm"/>
+    </style:style>
+    <style:style style:name="co26" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.06cm"/>
+    </style:style>
+    <style:style style:name="co27" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.933cm"/>
+    </style:style>
+    <style:style style:name="co28" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.092cm"/>
+    </style:style>
+    <style:style style:name="co29" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="8.269cm"/>
+    </style:style>
     <style:style style:name="co14" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.654cm"/>
     </style:style>
@@ -62,97 +92,58 @@
     <style:style style:name="co21" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.746cm"/>
     </style:style>
-    <style:style style:name="co12" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.557cm"/>
-    </style:style>
-    <style:style style:name="co13" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="5.941cm"/>
-    </style:style>
-    <style:style style:name="co22" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="7.251cm"/>
-    </style:style>
-    <style:style style:name="co23" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="10.282cm"/>
-    </style:style>
-    <style:style style:name="co24" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="8.438cm"/>
-    </style:style>
-    <style:style style:name="co25" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="7.177cm"/>
-    </style:style>
-    <style:style style:name="co26" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.06cm"/>
-    </style:style>
-    <style:style style:name="co27" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.933cm"/>
-    </style:style>
-    <style:style style:name="co28" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.092cm"/>
-    </style:style>
-    <style:style style:name="co29" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="8.269cm"/>
-    </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.18cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="0.496cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ro7" style:family="table-row">
+      <style:table-row-properties style:row-height="1.826cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
     <style:style style:name="ro4" style:family="table-row">
       <style:table-row-properties style:row-height="0.453cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ro8" style:family="table-row">
+      <style:table-row-properties style:row-height="0.529cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro9" style:family="table-row">
+      <style:table-row-properties style:row-height="0.841cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro10" style:family="table-row">
+      <style:table-row-properties style:row-height="1.236cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro11" style:family="table-row">
+      <style:table-row-properties style:row-height="0.788cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ro6" style:family="table-row">
       <style:table-row-properties style:row-height="0.473cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro7" style:family="table-row">
-      <style:table-row-properties style:row-height="1.826cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
-    </style:style>
-    <style:style style:name="ro8" style:family="table-row">
-      <style:table-row-properties style:row-height="0.529cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
-    </style:style>
-    <style:style style:name="ro9" style:family="table-row">
-      <style:table-row-properties style:row-height="0.841cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro10" style:family="table-row">
-      <style:table-row-properties style:row-height="1.236cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro11" style:family="table-row">
-      <style:table-row-properties style:row-height="0.788cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro12" style:family="table-row">
+    <style:style style:name="ro13" style:family="table-row">
       <style:table-row-properties style:row-height="0.855cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro13" style:family="table-row">
-      <style:table-row-properties style:row-height="0.526cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro14" style:family="table-row">
-      <style:table-row-properties style:row-height="1.249cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro15" style:family="table-row">
-      <style:table-row-properties style:row-height="0.46cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    <style:style style:name="ta5" style:family="table" style:master-page-name="PageStyle_5f_表紙">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_変更履歴">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
+    <style:style style:name="ta7" style:family="table" style:master-page-name="PageStyle_5f_試験構成">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb" tableooo:tab-color="#4bacc6"/>
+    </style:style>
+    <style:style style:name="ta9" style:family="table" style:master-page-name="PageStyle_5f_A機能">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb" tableooo:tab-color="#f79646"/>
+    </style:style>
+    <style:style style:name="ta10" style:family="table" style:master-page-name="PageStyle_5f_B機能">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb" tableooo:tab-color="#f79646"/>
+    </style:style>
     <style:style style:name="ta6" style:family="table" style:master-page-name="PageStyle_5f_以降_3001_項目抽出">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ta8" style:family="table" style:master-page-name="PageStyle_5f_項目_28_B機能_29_">
       <style:table-properties table:display="true" style:writing-mode="lr-tb" tableooo:tab-color="#92d050"/>
     </style:style>
-    <style:style style:name="ta5" style:family="table" style:master-page-name="PageStyle_5f_表紙">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
-    <style:style style:name="ta7" style:family="table" style:master-page-name="PageStyle_5f_試験構成">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb" tableooo:tab-color="#4bacc6"/>
-    </style:style>
-    <style:style style:name="ta9" style:family="table" style:master-page-name="PageStyle_5f_A機能">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb" tableooo:tab-color="#f79646"/>
-    </style:style>
-    <style:style style:name="ta10" style:family="table" style:master-page-name="PageStyle_5f_B機能">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb" tableooo:tab-color="#f79646"/>
-    </style:style>
-    <style:style style:name="ta11" style:family="table" style:master-page-name="PageStyle_5f_項目_28_A機能_29_">
+    <style:style style:name="ta12" style:family="table" style:master-page-name="PageStyle_5f_項目_28_A機能_29_">
       <style:table-properties table:display="true" style:writing-mode="lr-tb" tableooo:tab-color="#92d050"/>
     </style:style>
     <number:date-style style:name="N8036" number:language="ja" number:country="JP" number:automatic-order="true">
@@ -165,316 +156,6 @@
     <number:text-style style:name="N8100" number:language="ja" number:country="JP">
       <number:text-content/>
     </number:text-style>
-    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce38" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce39" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce40" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce41" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce42" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce43" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce44" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce45" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce46" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce47" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce48" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce49" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce50" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce51" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce52" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce53" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce54" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce55" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce56" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce57" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce58" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce59" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="top"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce60" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="top"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce61" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce62" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce63" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:rotation-align="none"/>
-    </style:style>
-    <style:style style:name="ce64" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce65" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce66" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce67" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce68" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce69" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce70" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce71" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce72" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce73" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce74" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce75" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce76" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce77" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce78" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce79" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce80" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce81" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce82" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce83" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce84" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce85" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce86" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce87" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce88" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce89" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce90" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce91" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce92" style:family="table-cell" style:parent-style-name="標準_20_2">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce229" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce230" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce231" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce232" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce234" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce235" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.105cm double #000000" style:border-line-width-top="0.035cm 0.035cm 0.035cm"/>
-    </style:style>
-    <style:style style:name="ce236" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce237" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:background-color="transparent" fo:border-left="0.035cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce241" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce242" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.035cm solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce243" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce244" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce247" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8036">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.105cm double #000000" style:border-line-width-top="0.035cm 0.035cm 0.035cm" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce248" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce252" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce253" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce254" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
-    <style:style style:name="ce255" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
-    </style:style>
     <style:style style:name="ce111" style:family="table-cell" style:parent-style-name="標準_20_5">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
@@ -546,12 +227,12 @@
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="16pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="16pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="16pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce130" style:family="table-cell" style:parent-style-name="標準_20_3" style:data-style-name="N109">
+    <style:style style:name="ce130" style:family="table-cell" style:parent-style-name="標準_20_3" style:data-style-name="N110">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="16pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="16pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="16pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce131" style:family="table-cell" style:parent-style-name="標準_20_3" style:data-style-name="N109">
+    <style:style style:name="ce131" style:family="table-cell" style:parent-style-name="標準_20_3" style:data-style-name="N110">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="16pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="16pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="16pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
@@ -576,6 +257,256 @@
     </style:style>
     <style:style style:name="ce137" style:family="table-cell" style:parent-style-name="標準_20_3">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce38" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce39" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce40" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce41" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce42" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce43" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce44" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce45" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce46" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce47" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce48" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce49" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce50" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce51" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce52" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce53" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce54" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8100">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce55" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce56" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce57" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce58" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce59" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="top"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce60" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="top"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce61" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce62" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce63" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:rotation-align="none"/>
+    </style:style>
+    <style:style style:name="ce64" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce65" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce66" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce67" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce68" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce69" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce70" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce71" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce72" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce73" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce74" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce75" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce76" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce77" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce78" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce79" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce80" style:family="table-cell" style:parent-style-name="標準_20_2" style:data-style-name="N8036">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce81" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce82" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce83" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce84" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce85" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce86" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce87" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce88" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce89" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce90" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce91" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce92" style:family="table-cell" style:parent-style-name="標準_20_2">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="none" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
     </style:style>
     <style:style style:name="ce138" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
@@ -1172,51 +1103,111 @@
     <style:style style:name="ce292" style:family="table-cell" style:parent-style-name="標準_20_3">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:background-color="transparent" fo:border-left="none" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce293" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce229" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce230" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce231" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce232" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce234" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce235" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.105cm double #000000" style:border-line-width-top="0.035cm 0.035cm 0.035cm"/>
+    </style:style>
+    <style:style style:name="ce236" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce237" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:background-color="transparent" fo:border-left="0.035cm solid #000000" fo:border-right="0.035cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce241" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce242" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.035cm solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce243" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce244" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce247" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8036">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.105cm double #000000" style:border-line-width-top="0.035cm 0.035cm 0.035cm" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce248" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce252" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.105cm double #000000" style:border-line-width-bottom="0.035cm 0.035cm 0.035cm" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce253" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce254" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce255" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.035cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce311" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.088cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
     </style:style>
-    <style:style style:name="ce294" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce312" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:background-color="transparent" style:rotation-align="none"/>
     </style:style>
-    <style:style style:name="ce295" style:family="table-cell" style:parent-style-name="標準_20_3">
+    <style:style style:name="ce313" style:family="table-cell" style:parent-style-name="標準_20_3">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.002cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce296" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce314" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:rotation-align="none"/>
     </style:style>
-    <style:style style:name="ce297" style:family="table-cell" style:parent-style-name="標準_20_3" style:data-style-name="N8100">
+    <style:style style:name="ce315" style:family="table-cell" style:parent-style-name="標準_20_3" style:data-style-name="N8100">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.002cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="ce298" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce316" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.088cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="ce299" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce317" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="ce300" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8036">
+    <style:style style:name="ce318" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8036">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.105cm double #000000" style:border-line-width-top="0.035cm 0.035cm 0.035cm" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="ce301" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8036">
+    <style:style style:name="ce319" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8036">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.105cm double #000000" style:border-line-width-top="0.035cm 0.035cm 0.035cm" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="ce302" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce320" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
     </style:style>
-    <style:style style:name="ce303" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8036">
+    <style:style style:name="ce321" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8036">
       <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="ce304" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce322" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.088cm solid #000000" fo:background-color="#fdeada" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.035cm solid #000000" fo:border-right="0.088cm solid #000000" style:rotation-align="none" fo:border-top="0.088cm solid #000000"/>
     </style:style>
-    <style:style style:name="ce305" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce323" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:rotation-align="none"/>
     </style:style>
   </office:automatic-styles>
@@ -4191,7 +4182,7 @@
           <table:named-range table:name="Z_E970E683_0EE5_4F1A_9EF5_FD6FA65AACA5_.wvu.PrintArea" table:base-cell-address="$表紙.$A$1" table:cell-range-address="$'以降、項目抽出'.$A$1:.$K$3"/>
         </table:named-expressions>
       </table:table>
-      <table:table table:name="項目(A機能)" table:style-name="ta11" table:print="false">
+      <table:table table:name="項目(A機能)" table:style-name="ta12" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co14" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co15" table:default-cell-style-name="Default"/>
@@ -4206,7 +4197,7 @@
           <table:table-cell table:style-name="Default" table:number-columns-repeated="5"/>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro6">
           <table:table-cell/>
           <table:table-cell office:value-type="string">
             <text:p>■ 1. 人物認証</text:p>
@@ -4244,7 +4235,7 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離に顔の正面が映ってい映像に対して顔識別機能を使用する。</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-1</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
@@ -4260,7 +4251,7 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離より近くに顔の正面が映ってい映像に対して顔識別機能を使用する。 </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-2</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
@@ -4276,12 +4267,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離に顔の側面が映ってい映像に対して顔識別機能を使用する。</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-3</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="4">
             <text:p>4</text:p>
@@ -4292,12 +4283,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離より近くに顔の側面が映ってい映像に対して顔識別機能を使用する。 </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-4</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="5">
             <text:p>5</text:p>
@@ -4308,12 +4299,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>顔が映っていない映像に対して顔識別機能を使用する。 </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-5</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="6">
             <text:p>6</text:p>
@@ -4324,12 +4315,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離に体全体が正面を向いて映ってい映像に対して身体識別機能を使用する。</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-6</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="7">
             <text:p>7</text:p>
@@ -4340,12 +4331,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離に体全体が側面を向いて映ってい映像に対して身体識別機能を使用する。</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-7</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="8">
             <text:p>8</text:p>
@@ -4356,12 +4347,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>体の上半身が映ってい映像に対して身体識別機能を使用する</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-8</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="9">
             <text:p>9</text:p>
@@ -4372,12 +4363,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>体の下半身が映ってい映像に対して身体識別機能を使用する</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-9</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro14">
+        <table:table-row table:style-name="ro10">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="10">
             <text:p>10</text:p>
@@ -4388,12 +4379,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離に体全体が正面を向いて映り且つ両手を広げている映像に対して身体識別機能を使用する。 </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-10</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro14">
+        <table:table-row table:style-name="ro10">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="11">
             <text:p>11</text:p>
@@ -4404,12 +4395,12 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離に体全体が正面を向いて映り且つ両足を広げている映像に対して身体識別機能を使用する。 </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-11</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro14">
+        <table:table-row table:style-name="ro10">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="12">
             <text:p>12</text:p>
@@ -4420,23 +4411,23 @@
           <table:table-cell table:style-name="ce180" office:value-type="string">
             <text:p>固定カメラとの適正距離に体全体が正面を向いて映り且つ両手両足を広げている映像に対して身体識別機能を使用する。 </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce300" office:value-type="string">
+          <table:table-cell table:style-name="ce318" office:value-type="string">
             <text:p>1-12</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce293" office:value-type="float" office:value="13">
+          <table:table-cell table:style-name="ce311" office:value-type="float" office:value="13">
             <text:p>13</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce295" office:value-type="string">
+          <table:table-cell table:style-name="ce313" office:value-type="string">
             <text:p>体が映っていない</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce297" office:value-type="string">
+          <table:table-cell table:style-name="ce315" office:value-type="string">
             <text:p>体が映っていない映像に対して身体識別機能を使用する。</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce301" office:value-type="string">
+          <table:table-cell table:style-name="ce319" office:value-type="string">
             <text:p>1-13</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce255"/>
@@ -4447,7 +4438,7 @@
           <table:table-cell table:style-name="Default" table:number-columns-repeated="5"/>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro6">
           <table:table-cell/>
           <table:table-cell office:value-type="string">
             <text:p>■2. マーカー認証</text:p>
@@ -4474,7 +4465,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro13">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="1">
             <text:p>1</text:p>
@@ -4485,9 +4476,12 @@
           <table:table-cell office:value-type="string">
             <text:p>固定カメラとの適正距離にマーカーが正面を向いて映っている映像に対して色識別機能を使用する。</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro12">
+          <table:table-cell office:value-type="string">
+            <text:p>2-1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="2">
             <text:p>2</text:p>
@@ -4500,7 +4494,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="3">
             <text:p>3</text:p>
@@ -4513,7 +4507,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="4">
             <text:p>4</text:p>
@@ -4526,7 +4520,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="5">
             <text:p>5</text:p>
@@ -4539,7 +4533,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="6">
             <text:p>6</text:p>
@@ -4552,7 +4546,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="7">
             <text:p>7</text:p>
@@ -4565,7 +4559,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="8">
             <text:p>8</text:p>
@@ -4578,7 +4572,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="9">
             <text:p>9</text:p>
@@ -4591,7 +4585,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="10">
             <text:p>10</text:p>
@@ -4604,7 +4598,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="11">
             <text:p>11</text:p>
@@ -4617,7 +4611,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="12">
             <text:p>12</text:p>
@@ -4630,7 +4624,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="13">
             <text:p>13</text:p>
@@ -4643,7 +4637,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="14">
             <text:p>14</text:p>
@@ -4656,7 +4650,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="15">
             <text:p>15</text:p>
@@ -4669,7 +4663,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="16">
             <text:p>16</text:p>
@@ -4693,26 +4687,26 @@
           <table:table-cell table:style-name="ce241"/>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro15">
+        <table:table-row table:style-name="ro4">
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce293" office:value-type="float" office:value="18">
+          <table:table-cell table:style-name="ce311" office:value-type="float" office:value="18">
             <text:p>18</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce287" office:value-type="string">
             <text:p>　カメラからの適正距離より近くにマーカーが約45度傾いて映っている</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce298"/>
-          <table:table-cell table:style-name="ce302"/>
-          <table:table-cell table:style-name="ce304"/>
+          <table:table-cell table:style-name="ce316"/>
+          <table:table-cell table:style-name="ce320"/>
+          <table:table-cell table:style-name="ce322"/>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce294"/>
-          <table:table-cell table:style-name="ce296"/>
-          <table:table-cell table:style-name="ce299"/>
-          <table:table-cell table:style-name="ce303"/>
-          <table:table-cell table:style-name="ce305"/>
+          <table:table-cell table:style-name="ce312"/>
+          <table:table-cell table:style-name="ce314"/>
+          <table:table-cell table:style-name="ce317"/>
+          <table:table-cell table:style-name="ce321"/>
+          <table:table-cell table:style-name="ce323"/>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
@@ -4720,7 +4714,7 @@
           <table:table-cell table:style-name="Default" table:number-columns-repeated="5"/>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro6">
           <table:table-cell/>
           <table:table-cell office:value-type="string">
             <text:p>■2. マーカー認証</text:p>
@@ -4747,7 +4741,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="1">
             <text:p>1</text:p>
@@ -4773,7 +4767,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce174" office:value-type="string">
             <text:p>鍵と似ているポーズをしている。</text:p>
@@ -4808,7 +4802,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce293" office:value-type="float" office:value="4">
+          <table:table-cell table:style-name="ce311" office:value-type="float" office:value="4">
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce178" office:value-type="string">
@@ -4817,8 +4811,8 @@
           <table:table-cell table:style-name="ce189" office:value-type="string">
             <text:p>ポーズ不一致判定。</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce302"/>
-          <table:table-cell table:style-name="ce304"/>
+          <table:table-cell table:style-name="ce320"/>
+          <table:table-cell table:style-name="ce322"/>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:named-expressions/>
@@ -4916,11 +4910,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2017-08-28T11:28:56.20</dc:date>
+    <dc:date>2017-08-28T11:47:11.99</dc:date>
     <meta:generator>OpenOffice/4.1.3$Win32 OpenOffice.org_project/413m1$Build-9783</meta:generator>
-    <meta:editing-duration>PT2H19M12S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="8" meta:cell-count="544" meta:object-count="0"/>
+    <meta:editing-duration>PT2H19M26S</meta:editing-duration>
+    <meta:editing-cycles>2</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="8" meta:cell-count="545" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -4929,10 +4923,10 @@
 <office:document-settings xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:config="urn:oasis:names:tc:opendocument:xmlns:config:1.0" xmlns:ooo="http://openoffice.org/2004/office" office:version="1.2">
   <office:settings>
     <config:config-item-set config:name="ooo:view-settings">
-      <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">79022</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">41205</config:config-item>
+      <config:config-item config:name="VisibleAreaTop" config:type="int">451</config:config-item>
+      <config:config-item config:name="VisibleAreaLeft" config:type="int">651</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">29258</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">33837</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -5034,8 +5028,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">80</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="項目(A機能)">
-              <config:config-item config:name="CursorPositionX" config:type="int">11</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">18</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -5044,7 +5038,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">9</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">80</config:config-item>
@@ -5172,7 +5166,7 @@
     <number:number-style style:name="N8000" number:language="ja" number:country="JP">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:date-style style:name="N109P0" style:volatile="true">
+    <number:date-style style:name="N110P0" style:volatile="true">
       <number:year number:style="long"/>
       <number:text>年</number:text>
       <number:month/>
@@ -5180,9 +5174,9 @@
       <number:day/>
       <number:text>日</number:text>
     </number:date-style>
-    <number:text-style style:name="N109">
+    <number:text-style style:name="N110">
       <number:text-content/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N109P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N110P0"/>
     </number:text-style>
     <number:number-style style:name="N8109P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>¥</number:text>
@@ -5822,7 +5816,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2017-08-28">2017/08/28</text:date>
             , 
-            <text:time>11:28:56</text:time>
+            <text:time>11:47:12</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/document/test.xlsx
+++ b/document/test.xlsx
@@ -4465,7 +4465,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="1">
             <text:p>1</text:p>
@@ -4481,7 +4481,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
-        <table:table-row table:style-name="ro9">
+        <table:table-row table:style-name="ro13">
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="2">
             <text:p>2</text:p>
@@ -4492,7 +4492,10 @@
           <table:table-cell office:value-type="string">
             <text:p>赤が抽出されたフレーム画像に対して円識別機能を使用する。</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
+          <table:table-cell office:value-type="string">
+            <text:p>2-2</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
         <table:table-row table:style-name="ro9">
           <table:table-cell table:number-columns-repeated="2"/>
@@ -4910,11 +4913,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2017-08-28T11:47:11.99</dc:date>
+    <dc:date>2017-08-28T12:03:25.21</dc:date>
     <meta:generator>OpenOffice/4.1.3$Win32 OpenOffice.org_project/413m1$Build-9783</meta:generator>
-    <meta:editing-duration>PT2H19M26S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="8" meta:cell-count="545" meta:object-count="0"/>
+    <meta:editing-duration>PT2H19M43S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="8" meta:cell-count="546" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -5029,7 +5032,7 @@
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="項目(A機能)">
               <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -5816,7 +5819,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2017-08-28">2017/08/28</text:date>
             , 
-            <text:time>11:47:12</text:time>
+            <text:time>12:03:25</text:time>
           </text:p>
         </style:region-right>
       </style:header>
